--- a/transformacion/staging/fact_proyectos_estrategias.xlsx
+++ b/transformacion/staging/fact_proyectos_estrategias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Nombre Proyecto_x</t>
   </si>
@@ -34,6 +34,12 @@
     <t>BENEFICIARIOS</t>
   </si>
   <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
     <t>ALIANZA PARA LA TRANSFORMACIÓN DELA EDUCACIÓN MEDIA - ATEM</t>
   </si>
   <si>
@@ -88,7 +94,7 @@
     <t>ESTRATEGIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">ATEM_BEN_2025    </t>
+    <t>ATEM_BEN_2025</t>
   </si>
   <si>
     <t>RECUP_APREND_BEN_2024</t>
@@ -470,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,167 +501,227 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
